--- a/core/utils/docs_proj_p/distgradeunificada14.xlsx
+++ b/core/utils/docs_proj_p/distgradeunificada14.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYS_EXPED_BACK\project-beck_ventura\core\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\docs_proj_p\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26154D9A-98B4-4BAC-B973-0A184408CCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6F2545-E4D9-4B1E-B2E3-F621D9001449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
   <si>
     <t>PROJETO</t>
   </si>
@@ -355,12 +355,6 @@
   </si>
   <si>
     <t>E0412-EMEFEI PE FRANCISCO SILVA</t>
-  </si>
-  <si>
-    <t>CALÇA</t>
-  </si>
-  <si>
-    <t>camiseta manga longa</t>
   </si>
   <si>
     <t>RM 01</t>
@@ -1024,11 +1018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1105,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -1130,19 +1124,19 @@
         <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1161,13 +1155,13 @@
         <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>38</v>
@@ -1192,10 +1186,10 @@
         <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>68</v>
@@ -1223,10 +1217,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>68</v>
@@ -1254,10 +1248,10 @@
         <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>68</v>
@@ -1285,10 +1279,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>68</v>
@@ -1316,10 +1310,10 @@
         <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>68</v>
@@ -1330,20 +1324,12 @@
       <c r="F9" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="9">
-        <v>8</v>
-      </c>
-      <c r="H9" s="9">
-        <v>10</v>
-      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="9">
-        <v>55</v>
-      </c>
+      <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="9">
-        <v>63</v>
-      </c>
+      <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1355,10 +1341,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>68</v>
@@ -1386,10 +1372,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>68</v>
@@ -1417,10 +1403,10 @@
         <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>68</v>
@@ -1448,10 +1434,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>68</v>
@@ -1479,10 +1465,10 @@
         <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>68</v>
@@ -1510,10 +1496,10 @@
         <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>68</v>
@@ -1524,26 +1510,14 @@
       <c r="F15" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="9">
-        <v>12</v>
-      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9">
-        <v>58</v>
-      </c>
-      <c r="K15" s="9">
-        <v>88</v>
-      </c>
-      <c r="L15" s="9">
-        <v>52</v>
-      </c>
-      <c r="M15" s="9">
-        <v>74</v>
-      </c>
-      <c r="N15" s="9">
-        <v>96</v>
-      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -1553,10 +1527,10 @@
         <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>68</v>
@@ -1584,10 +1558,10 @@
         <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>68</v>
@@ -1615,10 +1589,10 @@
         <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>68</v>
@@ -1646,10 +1620,10 @@
         <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>68</v>
@@ -1672,15 +1646,15 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>56</v>
+      <c r="B20" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>68</v>
@@ -1708,10 +1682,10 @@
         <v>39</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>68</v>
@@ -1734,15 +1708,15 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>58</v>
+      <c r="B22" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>68</v>
@@ -1770,10 +1744,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>68</v>
@@ -1801,10 +1775,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>68</v>
@@ -1832,10 +1806,10 @@
         <v>39</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>68</v>
@@ -1863,10 +1837,10 @@
         <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>68</v>
@@ -1894,10 +1868,10 @@
         <v>39</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>68</v>
@@ -1925,10 +1899,10 @@
         <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>68</v>
@@ -1956,10 +1930,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>68</v>
@@ -1983,76 +1957,76 @@
       <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="A30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="A31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>68</v>
@@ -2080,10 +2054,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>68</v>
@@ -2111,10 +2085,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>68</v>
@@ -2142,10 +2116,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>68</v>
@@ -2173,10 +2147,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>68</v>
@@ -2204,10 +2178,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>68</v>
@@ -2231,76 +2205,76 @@
       <c r="Q37" s="18"/>
     </row>
     <row r="38" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="A38" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="A39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>68</v>
@@ -2328,10 +2302,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>68</v>
@@ -2359,10 +2333,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>68</v>
@@ -2390,10 +2364,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>68</v>
@@ -2421,10 +2395,10 @@
         <v>39</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>68</v>
@@ -2452,10 +2426,10 @@
         <v>39</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>68</v>
@@ -2483,10 +2457,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>68</v>
@@ -2514,10 +2488,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>68</v>
@@ -2544,11 +2518,11 @@
       <c r="A48" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>106</v>
+      <c r="B48" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>68</v>
@@ -2576,10 +2550,10 @@
         <v>39</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>68</v>
@@ -2602,68 +2576,6 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
     </row>
-    <row r="50" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-    </row>
-    <row r="51" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/core/utils/docs_proj_p/distgradeunificada14.xlsx
+++ b/core/utils/docs_proj_p/distgradeunificada14.xlsx
@@ -1032,9 +1032,9 @@
   <dimension ref="A1:Q441"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A443" activeCellId="0" sqref="A443"/>
+      <selection pane="bottomLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13562,7 +13562,7 @@
       <c r="P411" s="9"/>
       <c r="Q411" s="9"/>
     </row>
-    <row r="412" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
         <v>13</v>
       </c>
@@ -14430,7 +14430,7 @@
       <c r="P439" s="18"/>
       <c r="Q439" s="18"/>
     </row>
-    <row r="440" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="15" t="s">
         <v>13</v>
       </c>
